--- a/output/fit_clients/fit_round_245.xlsx
+++ b/output/fit_clients/fit_round_245.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1919000991.696715</v>
+        <v>2154209880.00175</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07369853825764928</v>
+        <v>0.08463842611942388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03534405840512937</v>
+        <v>0.03009353152580699</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>959500480.5922046</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2642934674.345868</v>
+        <v>2308858284.587789</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1480651162407411</v>
+        <v>0.1526184833776841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04302252381770261</v>
+        <v>0.04399168028015579</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1321467476.794268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4829513555.788533</v>
+        <v>5167205697.585934</v>
       </c>
       <c r="F4" t="n">
-        <v>0.157482040606423</v>
+        <v>0.1026768379345967</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03108548828466103</v>
+        <v>0.02722162425707245</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>89</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2414756850.83465</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3461514164.26285</v>
+        <v>3877154814.056309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0878903751682783</v>
+        <v>0.1050812001225832</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04604829362541377</v>
+        <v>0.0311453306503491</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>93</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1730757121.462793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2364788948.351347</v>
+        <v>2858705434.382577</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1281576130976574</v>
+        <v>0.08981519702711781</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03946923064237308</v>
+        <v>0.04078831488062266</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1182394464.282873</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3093912107.770429</v>
+        <v>2013122165.854624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07709595499699647</v>
+        <v>0.06744074400854555</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03210536436642308</v>
+        <v>0.04696740077049884</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1546956009.715605</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3888651117.872412</v>
+        <v>3040003363.687894</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1881627487732808</v>
+        <v>0.2173372774096946</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02520018702424702</v>
+        <v>0.03239963166875963</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1944325707.28754</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1888239136.989379</v>
+        <v>2231159094.930093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.159000703476732</v>
+        <v>0.1300914322319069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02413402798765632</v>
+        <v>0.02431434461343581</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>944119610.6080643</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4962921206.829385</v>
+        <v>5572172512.388636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1716363858855561</v>
+        <v>0.1863904311647583</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05275236871336872</v>
+        <v>0.03681997031990877</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>103</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2481460699.836239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3312445573.90269</v>
+        <v>2637460287.052314</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1697521121620325</v>
+        <v>0.1877136097761283</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03682473505674139</v>
+        <v>0.04993963204366767</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>102</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1656222751.644496</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2253521592.272627</v>
+        <v>2784507605.649368</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1643846169374039</v>
+        <v>0.1738204330874512</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04286466430590456</v>
+        <v>0.05135808534533721</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1126760745.762717</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4891535439.511479</v>
+        <v>3221534469.193172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09014255643373896</v>
+        <v>0.06434816933223018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03027889943547517</v>
+        <v>0.02837032624820678</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>82</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2445767729.387193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2585770445.70705</v>
+        <v>3448286331.643811</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1711613200936981</v>
+        <v>0.1472300422212358</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02873690658296332</v>
+        <v>0.02894434749116371</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1292885287.276104</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1179456964.820194</v>
+        <v>1594969567.589117</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08164337729542225</v>
+        <v>0.07167993812916801</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03997952233169889</v>
+        <v>0.04632709151121776</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>589728495.2268703</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2732186393.425867</v>
+        <v>2587243996.662638</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08965201741817073</v>
+        <v>0.09216440952137479</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0434497443387727</v>
+        <v>0.04176185228858931</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>44</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1366093206.788527</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4031886626.081502</v>
+        <v>5085764121.933688</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1383196013052277</v>
+        <v>0.1262394786912726</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0407677577396337</v>
+        <v>0.03213798471679934</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2015943346.005575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2508184952.461201</v>
+        <v>3745549425.119653</v>
       </c>
       <c r="F18" t="n">
-        <v>0.128294344238405</v>
+        <v>0.1179418859732992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02833222484421304</v>
+        <v>0.02938630487486117</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>80</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1254092542.140034</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1158051414.291448</v>
+        <v>997167733.8412809</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1158470200335024</v>
+        <v>0.1791867738864468</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02464292033844419</v>
+        <v>0.01916091306970477</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>579025774.8466938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1801318433.323931</v>
+        <v>1829744192.156862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.144500294271706</v>
+        <v>0.1540276565123133</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02725130110856899</v>
+        <v>0.02721335082529941</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>900659264.1734922</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2413112076.352041</v>
+        <v>2431500328.516279</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09111837509844556</v>
+        <v>0.08206543980985004</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0315649758352134</v>
+        <v>0.0376660878073657</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1206556034.603478</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3111818519.806568</v>
+        <v>3809798545.942853</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1103812430740767</v>
+        <v>0.102210913522972</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04411299287224745</v>
+        <v>0.03646679462293332</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>68</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1555909314.732144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1535216593.631282</v>
+        <v>1533192005.658705</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1799925840215773</v>
+        <v>0.1176040639231652</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03591910296207196</v>
+        <v>0.05212458331178222</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>767608276.804549</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2965494777.179179</v>
+        <v>3651602671.101474</v>
       </c>
       <c r="F24" t="n">
-        <v>0.142349974839332</v>
+        <v>0.1219587935084331</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03219410884439292</v>
+        <v>0.02553385072170893</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>72</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1482747426.151573</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1315998218.161598</v>
+        <v>1428776676.816131</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1032286270650692</v>
+        <v>0.103214675554387</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01921387738549868</v>
+        <v>0.02260754090078397</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>657999100.3465992</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>942149212.9163969</v>
+        <v>1329268640.259797</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1230383771312022</v>
+        <v>0.09222593191451608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03188946729820451</v>
+        <v>0.03352704479653482</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>471074564.4253163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4580718022.298794</v>
+        <v>3139141616.98169</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1077184826591419</v>
+        <v>0.1040424343138276</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02694771061312671</v>
+        <v>0.0247452106107874</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2290358992.434067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3297204877.841734</v>
+        <v>3789665580.306937</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1123248344471583</v>
+        <v>0.1447861835977185</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04533933473008492</v>
+        <v>0.03457401100762456</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1648602475.927177</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3852753104.055017</v>
+        <v>4746572837.074147</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1099000612826512</v>
+        <v>0.09764513338890279</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02948306455482107</v>
+        <v>0.03162170831156972</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>108</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1926376579.114455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2189303873.103567</v>
+        <v>1985919696.622118</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1170592232434032</v>
+        <v>0.1079191518150403</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03481797655632753</v>
+        <v>0.03713327876668029</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1094651995.536942</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1083043679.696074</v>
+        <v>1028922589.187446</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1020485226099395</v>
+        <v>0.08841770901814068</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05184593962690563</v>
+        <v>0.03483910035990345</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>541521818.8346121</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1282163632.725513</v>
+        <v>1553525239.370692</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1115390290535248</v>
+        <v>0.0992843832552938</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03507795918823035</v>
+        <v>0.03405855908190537</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>641081839.5630795</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2564071605.459641</v>
+        <v>1928822236.126385</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1711057365698418</v>
+        <v>0.1279235808342179</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03969663213589439</v>
+        <v>0.03955280828067465</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>75</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1282035835.49401</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>954367503.0604144</v>
+        <v>1002637108.036348</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08494928686833673</v>
+        <v>0.1116043304340569</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0183145396537173</v>
+        <v>0.01968190229732446</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>477183796.8429748</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1157449420.679773</v>
+        <v>1200097741.759831</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07628557030560033</v>
+        <v>0.09158565632389341</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04082296607440344</v>
+        <v>0.03198684199668005</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>578724694.3767062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2192879141.688083</v>
+        <v>2470574866.263828</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1677001656570962</v>
+        <v>0.1122405727637067</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0189478207717914</v>
+        <v>0.02399439173169073</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>61</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1096439617.432295</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2084431532.709126</v>
+        <v>2210428340.233053</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07996796176500871</v>
+        <v>0.07675524233196079</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03074158571055386</v>
+        <v>0.03463726402292579</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>63</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1042215805.248929</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1518520806.831805</v>
+        <v>1943634679.964276</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1094458932334886</v>
+        <v>0.08349051974082709</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02660411238473206</v>
+        <v>0.03193090949671748</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>759260450.046725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1780848670.935625</v>
+        <v>2011195620.299795</v>
       </c>
       <c r="F39" t="n">
-        <v>0.120019410751488</v>
+        <v>0.124565589640253</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02533788511757388</v>
+        <v>0.0228864522021396</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>890424363.2675654</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1435048429.320684</v>
+        <v>1462573264.213998</v>
       </c>
       <c r="F40" t="n">
-        <v>0.125776919887055</v>
+        <v>0.1553764389738311</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04655646341208235</v>
+        <v>0.04980044128106496</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>717524197.1184429</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1833449117.32763</v>
+        <v>2478103452.780315</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1186460190720866</v>
+        <v>0.1294797082128447</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03946596239342134</v>
+        <v>0.04241238073836191</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>916724649.1900671</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3659778962.826972</v>
+        <v>3640402550.423957</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09586668777991345</v>
+        <v>0.1151053291336052</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02887818899766702</v>
+        <v>0.0305161436729636</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1829889487.262617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2785811761.719915</v>
+        <v>3059398658.850311</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1714033476987823</v>
+        <v>0.1315425737455654</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01883362902655006</v>
+        <v>0.0229223869726278</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>85</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1392905900.784124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1438714757.40259</v>
+        <v>1755111097.654253</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09576557342515683</v>
+        <v>0.06492886309776587</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0300237906703355</v>
+        <v>0.03261143387151921</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>719357373.0411572</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1613194815.997559</v>
+        <v>2256427539.537395</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1417810603481236</v>
+        <v>0.1720147696563937</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04991010617296355</v>
+        <v>0.04651127829493313</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>806597359.8764082</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3709521203.192075</v>
+        <v>3790386627.09409</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1223315353758337</v>
+        <v>0.116082489229338</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0456740582460673</v>
+        <v>0.04410375694324354</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>87</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1854760554.499376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3308165554.706975</v>
+        <v>4218133546.852933</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1393835522349699</v>
+        <v>0.1224564409618421</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05176270106432376</v>
+        <v>0.04135716632624765</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>66</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1654082737.270291</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3493823123.134772</v>
+        <v>4655649692.161384</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08223086136660317</v>
+        <v>0.07237662565353092</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03526368946505065</v>
+        <v>0.02492699387641991</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1746911625.328777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1324646729.328921</v>
+        <v>1519640302.647122</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1691776409259022</v>
+        <v>0.1796269129448402</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03922310494123742</v>
+        <v>0.03753865784453668</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>662323423.9544549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2620030270.829466</v>
+        <v>3693753204.510087</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1705686455982768</v>
+        <v>0.121300092035425</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03747707544723883</v>
+        <v>0.03407084649759613</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>84</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1310015222.270271</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>983997916.744961</v>
+        <v>1161151027.015992</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1779750882028722</v>
+        <v>0.1589458179080556</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03584721139048511</v>
+        <v>0.0339821917542856</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>491999044.9282896</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4861149925.544992</v>
+        <v>5076457926.586466</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1352291390015759</v>
+        <v>0.1229981553337592</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05341310836484883</v>
+        <v>0.04760688688039883</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>101</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2430574968.555573</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3146421223.936037</v>
+        <v>2388865867.673419</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1358451025715651</v>
+        <v>0.1691118108730991</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02363873305032139</v>
+        <v>0.02725298170785896</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>70</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1573210634.301043</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3509007693.687401</v>
+        <v>4107453308.343151</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1080496505709117</v>
+        <v>0.1058648467464061</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03362680861439155</v>
+        <v>0.04585260318397793</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1754503872.359685</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3133953543.175204</v>
+        <v>3716464160.263755</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1646308757812557</v>
+        <v>0.1538359142197093</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02591394205551418</v>
+        <v>0.02433400040912871</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>72</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1566976708.291552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1737162635.267652</v>
+        <v>1594150995.639221</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1510280862905657</v>
+        <v>0.1284790988786788</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05613169979255121</v>
+        <v>0.04098410868244554</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>868581324.7404131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4236190375.500199</v>
+        <v>3003066181.520287</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1833561172073741</v>
+        <v>0.169077075562246</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02563901119021206</v>
+        <v>0.0178593507783577</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>78</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2118095295.943194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1307889988.13461</v>
+        <v>1349548377.756339</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1797182852220937</v>
+        <v>0.1764191514839313</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02685505260548682</v>
+        <v>0.0296774109539969</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>653945042.7367762</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5263679178.721501</v>
+        <v>5405280844.923102</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09442098214090906</v>
+        <v>0.09043081407229936</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04078380194407153</v>
+        <v>0.04278929197422912</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2631839504.330665</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2852896177.40289</v>
+        <v>3058808288.875354</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1608004072097533</v>
+        <v>0.178571235084982</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02964813484205581</v>
+        <v>0.03261567779207841</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1426448143.611943</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3077540646.949445</v>
+        <v>3137871700.932313</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1103715668857971</v>
+        <v>0.1517817198734509</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02294950527112303</v>
+        <v>0.03167652457640893</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>85</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1538770296.626895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1705552851.738312</v>
+        <v>1821296703.930655</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1647445921806537</v>
+        <v>0.1884603837534317</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04287253158284904</v>
+        <v>0.04420371514015407</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>852776439.753199</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4259656255.224976</v>
+        <v>5174681590.208915</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1046392490337645</v>
+        <v>0.1015884282702372</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04173207468033477</v>
+        <v>0.03779594170442339</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2129828178.401793</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3811236089.461041</v>
+        <v>4837607193.550325</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1442870461460305</v>
+        <v>0.1286029078320249</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02741196907694578</v>
+        <v>0.02865929121876326</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>76</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1905618067.303761</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4955886833.704805</v>
+        <v>5378117353.062256</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1500430896252972</v>
+        <v>0.1168429998162439</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02283007911128093</v>
+        <v>0.02616639874760144</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>88</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2477943378.393996</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5001396855.270523</v>
+        <v>4338150680.186471</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1298927262560367</v>
+        <v>0.1118014473301396</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03263271855684378</v>
+        <v>0.04934906816405257</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>71</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2500698454.847085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3280507681.646329</v>
+        <v>3370071621.147166</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0926066814775774</v>
+        <v>0.06585772192820998</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03654347675174262</v>
+        <v>0.03255681599100991</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>80</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1640253835.336057</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5561594412.478248</v>
+        <v>5079613122.273591</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603566513470233</v>
+        <v>0.1554349393418657</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0399687447208853</v>
+        <v>0.04030489179959403</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2780797296.64579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1912242405.257415</v>
+        <v>2386337441.979251</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1668478808418109</v>
+        <v>0.1683632772007408</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0570264177371601</v>
+        <v>0.05310782783144695</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>956121196.2042738</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2886370718.390564</v>
+        <v>2984028910.59211</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09279971054927987</v>
+        <v>0.08320909247444155</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04918736155309606</v>
+        <v>0.03781162420500367</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>70</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1443185328.741464</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3480068485.043843</v>
+        <v>4294751336.120169</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1650989753614016</v>
+        <v>0.1717082748457761</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02081082776995634</v>
+        <v>0.03108811471715059</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>90</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1740034234.777878</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1514374900.95487</v>
+        <v>1870116514.998081</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07341185816402916</v>
+        <v>0.08969277427943828</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04658790971619865</v>
+        <v>0.04726945142046928</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>757187475.1340089</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2789574102.144934</v>
+        <v>3008415915.826259</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07243897287558852</v>
+        <v>0.07153244656183161</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05269414703598423</v>
+        <v>0.03253234519716462</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1394787066.320011</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3866849574.184392</v>
+        <v>3336186096.251618</v>
       </c>
       <c r="F74" t="n">
-        <v>0.157139793968069</v>
+        <v>0.1143476623994813</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03129067288948282</v>
+        <v>0.02535071126854716</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>84</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1933424777.564662</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2360781104.508506</v>
+        <v>1583473996.687608</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1619240618138363</v>
+        <v>0.1048105046423848</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02931858218699841</v>
+        <v>0.02612732085005488</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1180390482.608244</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5051940332.543454</v>
+        <v>3573226824.183385</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07795451371271783</v>
+        <v>0.1245457633640728</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02989012426518873</v>
+        <v>0.03323547673942427</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>61</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2525970195.086235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2021588748.375246</v>
+        <v>1536567897.375782</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1851059965423396</v>
+        <v>0.1445818549907997</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02458986305618077</v>
+        <v>0.02731914988420161</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1010794438.854311</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3989506569.453568</v>
+        <v>4142151736.334027</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09251002342124644</v>
+        <v>0.1021128726926372</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0402626750139866</v>
+        <v>0.0480942125829306</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>85</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1994753251.215523</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1870666556.78562</v>
+        <v>1470182219.915984</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1172504683699699</v>
+        <v>0.1653463103743033</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03665339690638272</v>
+        <v>0.02927835402860313</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>935333377.389607</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4499424649.312968</v>
+        <v>4767631410.576271</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1012272723938796</v>
+        <v>0.08155615892719213</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03543677777783609</v>
+        <v>0.03470512558168742</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>51</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2249712348.950681</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4907631148.37302</v>
+        <v>4878836720.419512</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09988777436317302</v>
+        <v>0.09766774386636526</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02385323755565414</v>
+        <v>0.02002749347028736</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2453815571.094179</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3449636879.37904</v>
+        <v>4741724446.462682</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2000336791778513</v>
+        <v>0.1865018094623826</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01868338339707577</v>
+        <v>0.02597184655210425</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1724818510.169812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2006891503.414554</v>
+        <v>1845021394.838649</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1560692024566212</v>
+        <v>0.1047848521114672</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0421817982947897</v>
+        <v>0.0362735479974149</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1003445737.899446</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2361572868.548642</v>
+        <v>1587689374.755419</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1143446740996203</v>
+        <v>0.08037101033616546</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03405270794236917</v>
+        <v>0.03947039213105025</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1180786386.359445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3073943968.281157</v>
+        <v>2480044000.607437</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1558793034460909</v>
+        <v>0.1299825158425531</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04523552582916006</v>
+        <v>0.05121948080230561</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>92</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1536972052.463742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2405299336.950787</v>
+        <v>2533346414.850432</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1534460347729453</v>
+        <v>0.1483906801544631</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02599031707697705</v>
+        <v>0.02398383242644189</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1202649752.464829</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1464108816.188255</v>
+        <v>1298250455.450234</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1340003661921791</v>
+        <v>0.1607087516504258</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03693874492676007</v>
+        <v>0.03222320800741121</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>732054531.3549556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2732486061.983994</v>
+        <v>2407085252.018518</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1730292092671017</v>
+        <v>0.1339336387238408</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02600803951114463</v>
+        <v>0.03880520534549675</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>97</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1366243034.986608</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2324382801.346288</v>
+        <v>2128796189.003704</v>
       </c>
       <c r="F89" t="n">
-        <v>0.156566668266479</v>
+        <v>0.1348224818863454</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04046860506507891</v>
+        <v>0.03584412552524104</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>83</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1162191488.297551</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1499309489.329587</v>
+        <v>1789160523.416942</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1063033478006605</v>
+        <v>0.1278042871844355</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05474154112393936</v>
+        <v>0.04995738099681804</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>749654723.2554523</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1336406499.543037</v>
+        <v>1879439366.70645</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1772851984608595</v>
+        <v>0.1836355607662834</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04198095927745849</v>
+        <v>0.05397751329011768</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>668203310.4815279</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2507835799.833064</v>
+        <v>2926334184.815664</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07345196692383503</v>
+        <v>0.07598989197769043</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03997985089297643</v>
+        <v>0.04767593012518608</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>63</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1253917884.492285</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3295425642.355191</v>
+        <v>4028277475.980151</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1413148448053471</v>
+        <v>0.1119622275994079</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04948459381284191</v>
+        <v>0.04722763408224166</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>74</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1647712867.345375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1983136526.183817</v>
+        <v>2084261356.427037</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1025940458067783</v>
+        <v>0.1321096622416439</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03908334184541715</v>
+        <v>0.03818214617477279</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>991568259.2468933</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2128188668.292396</v>
+        <v>2470658124.912531</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1168716822759</v>
+        <v>0.1286731915263664</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03718182773834755</v>
+        <v>0.04004576237660614</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>59</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1064094397.266332</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1802804260.2313</v>
+        <v>1526495201.770952</v>
       </c>
       <c r="F96" t="n">
-        <v>0.105002466104883</v>
+        <v>0.1243604704000058</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03714968725862409</v>
+        <v>0.04050385625873089</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>901402138.1445253</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3786797853.453996</v>
+        <v>4703557197.471374</v>
       </c>
       <c r="F97" t="n">
-        <v>0.146849266536755</v>
+        <v>0.1137435199630281</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02878642042623635</v>
+        <v>0.02397724314318581</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1893398965.950646</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3867918767.679046</v>
+        <v>2435709406.610481</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1271514997964316</v>
+        <v>0.08774368484070631</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02332590769593038</v>
+        <v>0.02468893605875285</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1933959427.417316</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2138129374.864848</v>
+        <v>2566304448.530037</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1307953029399223</v>
+        <v>0.1176483904652172</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03272102013771737</v>
+        <v>0.02657321709972502</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1069064610.904549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4441725153.627417</v>
+        <v>4040014209.285543</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1691547498816406</v>
+        <v>0.1412382209524446</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02446682019976131</v>
+        <v>0.02437561370065576</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>76</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2220862682.749701</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2654566898.594381</v>
+        <v>3297810620.797574</v>
       </c>
       <c r="F101" t="n">
-        <v>0.167550419721653</v>
+        <v>0.165894893372699</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04539817294447063</v>
+        <v>0.04915384122460861</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>99</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1327283492.73747</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_245.xlsx
+++ b/output/fit_clients/fit_round_245.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2154209880.00175</v>
+        <v>2352032134.01878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08463842611942388</v>
+        <v>0.1130908973669662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03009353152580699</v>
+        <v>0.03690739265246897</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2308858284.587789</v>
+        <v>2070172427.006161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1526184833776841</v>
+        <v>0.171058581037087</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04399168028015579</v>
+        <v>0.04796432180005954</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5167205697.585934</v>
+        <v>3986550518.517395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1026768379345967</v>
+        <v>0.1415669429758242</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02722162425707245</v>
+        <v>0.02568754682000616</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3877154814.056309</v>
+        <v>3184842418.506629</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1050812001225832</v>
+        <v>0.07324451696206964</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0311453306503491</v>
+        <v>0.03477592970589938</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2858705434.382577</v>
+        <v>2549608341.528985</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08981519702711781</v>
+        <v>0.149199340758945</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04078831488062266</v>
+        <v>0.04532069203712383</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2013122165.854624</v>
+        <v>2474431635.960192</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06744074400854555</v>
+        <v>0.0654356882077184</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04696740077049884</v>
+        <v>0.03118283270953362</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3040003363.687894</v>
+        <v>2716009663.400526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2173372774096946</v>
+        <v>0.1422331439525839</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03239963166875963</v>
+        <v>0.02017963952962851</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2231159094.930093</v>
+        <v>1989979775.733762</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1300914322319069</v>
+        <v>0.127453576268798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02431434461343581</v>
+        <v>0.03019823484403681</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5572172512.388636</v>
+        <v>3858621083.722392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1863904311647583</v>
+        <v>0.1496981718163817</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03681997031990877</v>
+        <v>0.03571574041397237</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2637460287.052314</v>
+        <v>2677393718.63649</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1877136097761283</v>
+        <v>0.1624778683418034</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04993963204366767</v>
+        <v>0.03257572206324693</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2784507605.649368</v>
+        <v>2465315459.060721</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1738204330874512</v>
+        <v>0.1976627164987054</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05135808534533721</v>
+        <v>0.03888045061804699</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3221534469.193172</v>
+        <v>4602283742.532092</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06434816933223018</v>
+        <v>0.08277406667668161</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02837032624820678</v>
+        <v>0.02213833516196994</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3448286331.643811</v>
+        <v>3265879792.018647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1472300422212358</v>
+        <v>0.1598171600739206</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02894434749116371</v>
+        <v>0.03356861194300059</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1594969567.589117</v>
+        <v>1553055082.539781</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07167993812916801</v>
+        <v>0.1056695155680439</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04632709151121776</v>
+        <v>0.0346936664089417</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2587243996.662638</v>
+        <v>2019169550.303313</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09216440952137479</v>
+        <v>0.08638511730679312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04176185228858931</v>
+        <v>0.03912968266165039</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5085764121.933688</v>
+        <v>3694951743.408946</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1262394786912726</v>
+        <v>0.1695433987358628</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03213798471679934</v>
+        <v>0.03760360416574046</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3745549425.119653</v>
+        <v>3633660976.791375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1179418859732992</v>
+        <v>0.1161039400738731</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02938630487486117</v>
+        <v>0.0342009643682696</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>997167733.8412809</v>
+        <v>1215164858.537235</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1791867738864468</v>
+        <v>0.1824743351158623</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01916091306970477</v>
+        <v>0.02335110912502535</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1829744192.156862</v>
+        <v>2071804274.451716</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1540276565123133</v>
+        <v>0.1120250288293019</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02721335082529941</v>
+        <v>0.02073922850277879</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2431500328.516279</v>
+        <v>1662968382.714349</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08206543980985004</v>
+        <v>0.0817087821891188</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0376660878073657</v>
+        <v>0.0379621468094213</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3809798545.942853</v>
+        <v>3111636858.703351</v>
       </c>
       <c r="F22" t="n">
-        <v>0.102210913522972</v>
+        <v>0.1373842567577012</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03646679462293332</v>
+        <v>0.04710447300847502</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1533192005.658705</v>
+        <v>1358376823.876793</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1176040639231652</v>
+        <v>0.1414955595933337</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05212458331178222</v>
+        <v>0.03501055711259194</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3651602671.101474</v>
+        <v>3421941386.525858</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1219587935084331</v>
+        <v>0.1203582392179327</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02553385072170893</v>
+        <v>0.02815569996190712</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1428776676.816131</v>
+        <v>922733636.7590925</v>
       </c>
       <c r="F25" t="n">
-        <v>0.103214675554387</v>
+        <v>0.08469988089345505</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02260754090078397</v>
+        <v>0.02486393648849014</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1329268640.259797</v>
+        <v>1149986844.472088</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09222593191451608</v>
+        <v>0.07546706048914112</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03352704479653482</v>
+        <v>0.02846444471498395</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3139141616.98169</v>
+        <v>3048213931.147801</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1040424343138276</v>
+        <v>0.09724087012870852</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0247452106107874</v>
+        <v>0.01789159794512987</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3789665580.306937</v>
+        <v>3795811282.896818</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1447861835977185</v>
+        <v>0.1145071452304506</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03457401100762456</v>
+        <v>0.03613756746902991</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4746572837.074147</v>
+        <v>4234680045.748146</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09764513338890279</v>
+        <v>0.1051746263918696</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03162170831156972</v>
+        <v>0.03877336627764704</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1985919696.622118</v>
+        <v>2022262547.8276</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1079191518150403</v>
+        <v>0.09540638367756132</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03713327876668029</v>
+        <v>0.02503767112811962</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1028922589.187446</v>
+        <v>1276521772.405157</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08841770901814068</v>
+        <v>0.1104036442115645</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03483910035990345</v>
+        <v>0.04834254849155548</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1553525239.370692</v>
+        <v>1597319405.819084</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0992843832552938</v>
+        <v>0.1125070469579938</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03405855908190537</v>
+        <v>0.03866571886734834</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1928822236.126385</v>
+        <v>2941246328.613456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1279235808342179</v>
+        <v>0.1261158993421882</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03955280828067465</v>
+        <v>0.04667573857791647</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1002637108.036348</v>
+        <v>1366979202.579439</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1116043304340569</v>
+        <v>0.08579643730816952</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01968190229732446</v>
+        <v>0.02285776498280476</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1200097741.759831</v>
+        <v>1142389446.325915</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09158565632389341</v>
+        <v>0.07148277749155321</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03198684199668005</v>
+        <v>0.02782536361222361</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2470574866.263828</v>
+        <v>2866229623.920387</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1122405727637067</v>
+        <v>0.157929697845067</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02399439173169073</v>
+        <v>0.02308143880566507</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2210428340.233053</v>
+        <v>2756868632.216393</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07675524233196079</v>
+        <v>0.102530733024999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03463726402292579</v>
+        <v>0.03982826424104813</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1943634679.964276</v>
+        <v>1992641764.717497</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08349051974082709</v>
+        <v>0.08999995327158668</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03193090949671748</v>
+        <v>0.03555886186905045</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2011195620.299795</v>
+        <v>2029029712.186805</v>
       </c>
       <c r="F39" t="n">
-        <v>0.124565589640253</v>
+        <v>0.1521830688959108</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0228864522021396</v>
+        <v>0.02563868445592542</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1462573264.213998</v>
+        <v>1136285249.792907</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1553764389738311</v>
+        <v>0.1014499604327097</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04980044128106496</v>
+        <v>0.04457577228202331</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2478103452.780315</v>
+        <v>2172218665.129178</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1294797082128447</v>
+        <v>0.1612739724239959</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04241238073836191</v>
+        <v>0.02999048719365549</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3640402550.423957</v>
+        <v>3801061379.858552</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1151053291336052</v>
+        <v>0.1183909932224794</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0305161436729636</v>
+        <v>0.03933220012815566</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3059398658.850311</v>
+        <v>2673214079.005288</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1315425737455654</v>
+        <v>0.1536106081276288</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0229223869726278</v>
+        <v>0.02013114118464104</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1755111097.654253</v>
+        <v>1531657878.953936</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06492886309776587</v>
+        <v>0.101586465288702</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03261143387151921</v>
+        <v>0.02652528049555142</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2256427539.537395</v>
+        <v>1970281370.865832</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1720147696563937</v>
+        <v>0.1195038568754163</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04651127829493313</v>
+        <v>0.05448903636130028</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3790386627.09409</v>
+        <v>4491040104.983562</v>
       </c>
       <c r="F46" t="n">
-        <v>0.116082489229338</v>
+        <v>0.1444798209885235</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04410375694324354</v>
+        <v>0.03879718190803721</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4218133546.852933</v>
+        <v>3723250913.399656</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1224564409618421</v>
+        <v>0.1269719215540468</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04135716632624765</v>
+        <v>0.04524053787323292</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4655649692.161384</v>
+        <v>4222997900.955163</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07237662565353092</v>
+        <v>0.1105004584534443</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02492699387641991</v>
+        <v>0.02391725789542607</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1519640302.647122</v>
+        <v>1603955529.225821</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1796269129448402</v>
+        <v>0.1830256575230791</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03753865784453668</v>
+        <v>0.02932175110400576</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3693753204.510087</v>
+        <v>4071353945.628564</v>
       </c>
       <c r="F50" t="n">
-        <v>0.121300092035425</v>
+        <v>0.1182400968561864</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03407084649759613</v>
+        <v>0.04233053512185778</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1161151027.015992</v>
+        <v>1522906434.693734</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1589458179080556</v>
+        <v>0.1529608310080391</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0339821917542856</v>
+        <v>0.04012994103219365</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5076457926.586466</v>
+        <v>3954703683.903183</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1229981553337592</v>
+        <v>0.09001619855299285</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04760688688039883</v>
+        <v>0.05882416274290812</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2388865867.673419</v>
+        <v>3360251220.371175</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1691118108730991</v>
+        <v>0.1511398988472105</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02725298170785896</v>
+        <v>0.03222943977423684</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4107453308.343151</v>
+        <v>4281726692.118074</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1058648467464061</v>
+        <v>0.1597921435497026</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04585260318397793</v>
+        <v>0.0478900656463773</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3716464160.263755</v>
+        <v>4283435174.552288</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1538359142197093</v>
+        <v>0.1527110802292763</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02433400040912871</v>
+        <v>0.03094825741545343</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1594150995.639221</v>
+        <v>1140896998.852959</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1284790988786788</v>
+        <v>0.1531468631141759</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04098410868244554</v>
+        <v>0.03832630206397475</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3003066181.520287</v>
+        <v>3497975395.518593</v>
       </c>
       <c r="F57" t="n">
-        <v>0.169077075562246</v>
+        <v>0.1259206186652071</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0178593507783577</v>
+        <v>0.01816826830116825</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1349548377.756339</v>
+        <v>1744175962.307403</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1764191514839313</v>
+        <v>0.1694560272605042</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0296774109539969</v>
+        <v>0.03847053911696488</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5405280844.923102</v>
+        <v>5371285857.45551</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09043081407229936</v>
+        <v>0.07883438610164163</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04278929197422912</v>
+        <v>0.03439105974138987</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3058808288.875354</v>
+        <v>2361792228.386778</v>
       </c>
       <c r="F60" t="n">
-        <v>0.178571235084982</v>
+        <v>0.1863803977346182</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03261567779207841</v>
+        <v>0.02098503710544145</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3137871700.932313</v>
+        <v>3153131607.459191</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1517817198734509</v>
+        <v>0.1581753386926527</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03167652457640893</v>
+        <v>0.02506771661526945</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1821296703.930655</v>
+        <v>2084945542.726735</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1884603837534317</v>
+        <v>0.1677582658485785</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04420371514015407</v>
+        <v>0.04560903539261395</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5174681590.208915</v>
+        <v>4436469749.564373</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1015884282702372</v>
+        <v>0.1006317081373194</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03779594170442339</v>
+        <v>0.03942380012199316</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4837607193.550325</v>
+        <v>5314404363.730341</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1286029078320249</v>
+        <v>0.120596435217711</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02865929121876326</v>
+        <v>0.03395710037097079</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5378117353.062256</v>
+        <v>4695402775.839493</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1168429998162439</v>
+        <v>0.1073183693053088</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02616639874760144</v>
+        <v>0.02080507656609303</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4338150680.186471</v>
+        <v>4270993082.508367</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1118014473301396</v>
+        <v>0.1363346016817231</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04934906816405257</v>
+        <v>0.05118862185967044</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3370071621.147166</v>
+        <v>3050707075.120343</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06585772192820998</v>
+        <v>0.0981997984920908</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03255681599100991</v>
+        <v>0.04068991958372395</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5079613122.273591</v>
+        <v>5051034124.66186</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1554349393418657</v>
+        <v>0.1214824771461565</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04030489179959403</v>
+        <v>0.03410258055967699</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2386337441.979251</v>
+        <v>1816620955.206819</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1683632772007408</v>
+        <v>0.1651510503184211</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05310782783144695</v>
+        <v>0.06010622174542023</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2984028910.59211</v>
+        <v>2278319509.402084</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08320909247444155</v>
+        <v>0.09941874755846927</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03781162420500367</v>
+        <v>0.04950436788771653</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4294751336.120169</v>
+        <v>3565987106.512751</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1717082748457761</v>
+        <v>0.1591227156985068</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03108811471715059</v>
+        <v>0.02533291102378557</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1870116514.998081</v>
+        <v>1429728815.943969</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08969277427943828</v>
+        <v>0.08971539807135689</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04726945142046928</v>
+        <v>0.03611353599619587</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3008415915.826259</v>
+        <v>2975825164.551787</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07153244656183161</v>
+        <v>0.0709063150253235</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03253234519716462</v>
+        <v>0.03787036998740537</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3336186096.251618</v>
+        <v>2921427700.674416</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1143476623994813</v>
+        <v>0.1311723460509306</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02535071126854716</v>
+        <v>0.03494654052971606</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1583473996.687608</v>
+        <v>1740266168.553564</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1048105046423848</v>
+        <v>0.1562034301812006</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02612732085005488</v>
+        <v>0.03098807221856469</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3573226824.183385</v>
+        <v>4543073283.067895</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1245457633640728</v>
+        <v>0.08472159372353087</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03323547673942427</v>
+        <v>0.02954027463878149</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1536567897.375782</v>
+        <v>1592510855.750326</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1445818549907997</v>
+        <v>0.1574099548223354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02731914988420161</v>
+        <v>0.02413450813011159</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4142151736.334027</v>
+        <v>3674809706.542437</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1021128726926372</v>
+        <v>0.1364298950531217</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0480942125829306</v>
+        <v>0.04247985362394169</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1470182219.915984</v>
+        <v>1411537067.970465</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1653463103743033</v>
+        <v>0.1242089031590782</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02927835402860313</v>
+        <v>0.03622871114631582</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4767631410.576271</v>
+        <v>4543664169.330312</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08155615892719213</v>
+        <v>0.08303905356574991</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03470512558168742</v>
+        <v>0.03199817914869747</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4878836720.419512</v>
+        <v>3827309774.522338</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09766774386636526</v>
+        <v>0.1308633886823683</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02002749347028736</v>
+        <v>0.02270105037700122</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4741724446.462682</v>
+        <v>5272868714.466846</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1865018094623826</v>
+        <v>0.1946136996602268</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02597184655210425</v>
+        <v>0.02607773254127058</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1845021394.838649</v>
+        <v>1895220708.128441</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1047848521114672</v>
+        <v>0.1485950914332532</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0362735479974149</v>
+        <v>0.04457595544217632</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1587689374.755419</v>
+        <v>2197573938.709723</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08037101033616546</v>
+        <v>0.0781874175637086</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03947039213105025</v>
+        <v>0.03824635419226909</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2480044000.607437</v>
+        <v>3692705957.386402</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1299825158425531</v>
+        <v>0.1473267820889443</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05121948080230561</v>
+        <v>0.03468448677136934</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2533346414.850432</v>
+        <v>2390339922.522736</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1483906801544631</v>
+        <v>0.117380949136574</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02398383242644189</v>
+        <v>0.02327205939648213</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1298250455.450234</v>
+        <v>1107393383.090359</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1607087516504258</v>
+        <v>0.1468848271384645</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03222320800741121</v>
+        <v>0.03864089792118872</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2407085252.018518</v>
+        <v>2530073875.58064</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1339336387238408</v>
+        <v>0.1757436104319161</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03880520534549675</v>
+        <v>0.03295555282685991</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2128796189.003704</v>
+        <v>2810591002.912873</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1348224818863454</v>
+        <v>0.1309162101831989</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03584412552524104</v>
+        <v>0.03472097941307081</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1789160523.416942</v>
+        <v>1949702862.384474</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1278042871844355</v>
+        <v>0.1048499581774023</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04995738099681804</v>
+        <v>0.05565312380932139</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1879439366.70645</v>
+        <v>1356605713.39157</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1836355607662834</v>
+        <v>0.1364300429744186</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05397751329011768</v>
+        <v>0.05313679464018328</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2926334184.815664</v>
+        <v>2357791778.010249</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07598989197769043</v>
+        <v>0.1038034987517669</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04767593012518608</v>
+        <v>0.03302402407122785</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4028277475.980151</v>
+        <v>4800233401.664</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1119622275994079</v>
+        <v>0.1116149757848909</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04722763408224166</v>
+        <v>0.03806384386073314</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2084261356.427037</v>
+        <v>1854074476.139801</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1321096622416439</v>
+        <v>0.1055827087794403</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03818214617477279</v>
+        <v>0.02683436129275417</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2470658124.912531</v>
+        <v>2525894907.584018</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1286731915263664</v>
+        <v>0.1380969073044176</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04004576237660614</v>
+        <v>0.03921203386987505</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1526495201.770952</v>
+        <v>1899092896.992151</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1243604704000058</v>
+        <v>0.1248901703638421</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04050385625873089</v>
+        <v>0.03886549507211046</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4703557197.471374</v>
+        <v>3735674583.82238</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1137435199630281</v>
+        <v>0.1763396502072873</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02397724314318581</v>
+        <v>0.02119433900770109</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2435709406.610481</v>
+        <v>2673501874.670977</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08774368484070631</v>
+        <v>0.09361468863435349</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02468893605875285</v>
+        <v>0.0234690104729089</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2566304448.530037</v>
+        <v>2541467715.59387</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1176483904652172</v>
+        <v>0.1116741708971285</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02657321709972502</v>
+        <v>0.03430129583563526</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4040014209.285543</v>
+        <v>4482305181.191258</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1412382209524446</v>
+        <v>0.135809110260936</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02437561370065576</v>
+        <v>0.02688766352527762</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3297810620.797574</v>
+        <v>3557453160.646699</v>
       </c>
       <c r="F101" t="n">
-        <v>0.165894893372699</v>
+        <v>0.186996621660782</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04915384122460861</v>
+        <v>0.05815925233900232</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_245.xlsx
+++ b/output/fit_clients/fit_round_245.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2352032134.01878</v>
+        <v>1606395283.371614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1130908973669662</v>
+        <v>0.07725566582364356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03690739265246897</v>
+        <v>0.03763379776646968</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2070172427.006161</v>
+        <v>1922733378.016696</v>
       </c>
       <c r="F3" t="n">
-        <v>0.171058581037087</v>
+        <v>0.165943359315502</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04796432180005954</v>
+        <v>0.04507193617234566</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3986550518.517395</v>
+        <v>3652561339.05174</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1415669429758242</v>
+        <v>0.1416191591245045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02568754682000616</v>
+        <v>0.03732838184308497</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>132</v>
+      </c>
+      <c r="J4" t="n">
+        <v>245</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3184842418.506629</v>
+        <v>2726763429.262993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07324451696206964</v>
+        <v>0.07492163053356397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03477592970589938</v>
+        <v>0.03565634914397187</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>244</v>
+      </c>
+      <c r="K5" t="n">
+        <v>62.78988495321415</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2549608341.528985</v>
+        <v>2592285018.65374</v>
       </c>
       <c r="F6" t="n">
-        <v>0.149199340758945</v>
+        <v>0.09805482455521501</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04532069203712383</v>
+        <v>0.04559484724424068</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2474431635.960192</v>
+        <v>2332321204.026268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0654356882077184</v>
+        <v>0.09072407955022327</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03118283270953362</v>
+        <v>0.03880829115593869</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2716009663.400526</v>
+        <v>3582804090.30446</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1422331439525839</v>
+        <v>0.2046080577546854</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02017963952962851</v>
+        <v>0.02591561033720734</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="n">
+        <v>98.91138004304187</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1989979775.733762</v>
+        <v>2189597331.311983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.127453576268798</v>
+        <v>0.1914828220405334</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03019823484403681</v>
+        <v>0.0287535608680001</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3858621083.722392</v>
+        <v>5638019686.067695</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1496981718163817</v>
+        <v>0.1505586083030893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03571574041397237</v>
+        <v>0.05256533194003903</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>223</v>
+      </c>
+      <c r="J10" t="n">
+        <v>245</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2677393718.63649</v>
+        <v>3678623011.213129</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1624778683418034</v>
+        <v>0.1461023538033115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03257572206324693</v>
+        <v>0.03906963794637958</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>101</v>
+      </c>
+      <c r="J11" t="n">
+        <v>245</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2465315459.060721</v>
+        <v>2994464440.560741</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1976627164987054</v>
+        <v>0.1230129977476105</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03888045061804699</v>
+        <v>0.0493942019391457</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4602283742.532092</v>
+        <v>3246828562.531887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08277406667668161</v>
+        <v>0.09578643765932798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02213833516196994</v>
+        <v>0.02797221650902437</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>124</v>
+      </c>
+      <c r="J13" t="n">
+        <v>244</v>
+      </c>
+      <c r="K13" t="n">
+        <v>78.54535730020829</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3265879792.018647</v>
+        <v>3110496363.140233</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1598171600739206</v>
+        <v>0.132473720225279</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03356861194300059</v>
+        <v>0.0334448290863597</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>243</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1553055082.539781</v>
+        <v>1270203854.662899</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1056695155680439</v>
+        <v>0.08548486935716268</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0346936664089417</v>
+        <v>0.03677907565674925</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2019169550.303313</v>
+        <v>2140516318.828976</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08638511730679312</v>
+        <v>0.0814251485704052</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03912968266165039</v>
+        <v>0.04020920603682679</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3694951743.408946</v>
+        <v>3920512624.127297</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1695433987358628</v>
+        <v>0.1344597523026682</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03760360416574046</v>
+        <v>0.03976030582540717</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>118</v>
+      </c>
+      <c r="J17" t="n">
+        <v>244</v>
+      </c>
+      <c r="K17" t="n">
+        <v>95.32067632710064</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3633660976.791375</v>
+        <v>2909449182.846701</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1161039400738731</v>
+        <v>0.1391299269247566</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0342009643682696</v>
+        <v>0.02189638259572245</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61</v>
+      </c>
+      <c r="J18" t="n">
+        <v>244</v>
+      </c>
+      <c r="K18" t="n">
+        <v>65.18013226283971</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1215164858.537235</v>
+        <v>1006173682.89067</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1824743351158623</v>
+        <v>0.1840304821169191</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02335110912502535</v>
+        <v>0.01966950103653749</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2071804274.451716</v>
+        <v>1986474880.574118</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1120250288293019</v>
+        <v>0.1405491185756074</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02073922850277879</v>
+        <v>0.02386605382068437</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1662968382.714349</v>
+        <v>2209435089.681811</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0817087821891188</v>
+        <v>0.09560616251575908</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0379621468094213</v>
+        <v>0.04454348752912124</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3111636858.703351</v>
+        <v>3643360947.50369</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1373842567577012</v>
+        <v>0.1091402135710479</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04710447300847502</v>
+        <v>0.03724593934643534</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>63</v>
+      </c>
+      <c r="J22" t="n">
+        <v>245</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1358376823.876793</v>
+        <v>1035706868.86141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1414955595933337</v>
+        <v>0.1816440957955521</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03501055711259194</v>
+        <v>0.03934390580425155</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3421941386.525858</v>
+        <v>2568461868.382884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1203582392179327</v>
+        <v>0.104987960397948</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02815569996190712</v>
+        <v>0.03320831119223014</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>922733636.7590925</v>
+        <v>1312019751.21834</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08469988089345505</v>
+        <v>0.08801426175914645</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02486393648849014</v>
+        <v>0.02301709773540043</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1149986844.472088</v>
+        <v>1404943234.575639</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07546706048914112</v>
+        <v>0.1020973800269417</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02846444471498395</v>
+        <v>0.02810252258960325</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3048213931.147801</v>
+        <v>2891547712.221261</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09724087012870852</v>
+        <v>0.1166940735465996</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01789159794512987</v>
+        <v>0.01743176830372538</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>99</v>
+      </c>
+      <c r="J27" t="n">
+        <v>242</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3795811282.896818</v>
+        <v>3425988882.890501</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1145071452304506</v>
+        <v>0.135189858450564</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03613756746902991</v>
+        <v>0.04291126600127956</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="n">
+        <v>89.46423023762044</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4234680045.748146</v>
+        <v>4734329634.490856</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1051746263918696</v>
+        <v>0.1249567275269368</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03877336627764704</v>
+        <v>0.03566303147520413</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>233</v>
+      </c>
+      <c r="J29" t="n">
+        <v>245</v>
+      </c>
+      <c r="K29" t="n">
+        <v>112.2020204853489</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2022262547.8276</v>
+        <v>1495647586.455475</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09540638367756132</v>
+        <v>0.1020135824894014</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02503767112811962</v>
+        <v>0.02775619373344852</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1276521772.405157</v>
+        <v>1090248806.032079</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1104036442115645</v>
+        <v>0.100300435940926</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04834254849155548</v>
+        <v>0.04264096983737019</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1597319405.819084</v>
+        <v>1790184328.933607</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1125070469579938</v>
+        <v>0.1103617158076289</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03866571886734834</v>
+        <v>0.02948492609255995</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2941246328.613456</v>
+        <v>3082941135.27996</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1261158993421882</v>
+        <v>0.2077555278079324</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04667573857791647</v>
+        <v>0.05535301979689688</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1366979202.579439</v>
+        <v>1445978355.459635</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08579643730816952</v>
+        <v>0.07444731036624323</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02285776498280476</v>
+        <v>0.01967045270325848</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1142389446.325915</v>
+        <v>1124979709.270856</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07148277749155321</v>
+        <v>0.1092803352569243</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02782536361222361</v>
+        <v>0.04490678107440559</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2866229623.920387</v>
+        <v>2713391182.218709</v>
       </c>
       <c r="F36" t="n">
-        <v>0.157929697845067</v>
+        <v>0.1333543783154434</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02308143880566507</v>
+        <v>0.0265603320502916</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2756868632.216393</v>
+        <v>1867657242.009144</v>
       </c>
       <c r="F37" t="n">
-        <v>0.102530733024999</v>
+        <v>0.09517147966260942</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03982826424104813</v>
+        <v>0.03937942865719281</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1992641764.717497</v>
+        <v>1520090441.009143</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08999995327158668</v>
+        <v>0.07973157894415966</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03555886186905045</v>
+        <v>0.03699569767569031</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2029029712.186805</v>
+        <v>2069309709.863556</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1521830688959108</v>
+        <v>0.1271996089763828</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02563868445592542</v>
+        <v>0.02288082009088368</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1136285249.792907</v>
+        <v>1810640740.530895</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1014499604327097</v>
+        <v>0.1038399152960532</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04457577228202331</v>
+        <v>0.05361958558367225</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2172218665.129178</v>
+        <v>2746736571.903293</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1612739724239959</v>
+        <v>0.1131002596666454</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02999048719365549</v>
+        <v>0.04456988364443005</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3801061379.858552</v>
+        <v>3759244075.833725</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1183909932224794</v>
+        <v>0.09527639866563804</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03933220012815566</v>
+        <v>0.04246366146190615</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>101</v>
+      </c>
+      <c r="J42" t="n">
+        <v>245</v>
+      </c>
+      <c r="K42" t="n">
+        <v>113.6179961462417</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2673214079.005288</v>
+        <v>2984029894.990272</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1536106081276288</v>
+        <v>0.1374614072592735</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02013114118464104</v>
+        <v>0.01749226285264844</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1531657878.953936</v>
+        <v>2096326749.340056</v>
       </c>
       <c r="F44" t="n">
-        <v>0.101586465288702</v>
+        <v>0.08713770259864237</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02652528049555142</v>
+        <v>0.02899649650969307</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1970281370.865832</v>
+        <v>2336436183.412803</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1195038568754163</v>
+        <v>0.1808697043503029</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05448903636130028</v>
+        <v>0.04015203364031902</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4491040104.983562</v>
+        <v>4080358413.413487</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1444798209885235</v>
+        <v>0.1080221761795654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03879718190803721</v>
+        <v>0.03770903234747863</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>140</v>
+      </c>
+      <c r="J46" t="n">
+        <v>245</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3723250913.399656</v>
+        <v>3560186763.796549</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1269719215540468</v>
+        <v>0.1771052108184373</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04524053787323292</v>
+        <v>0.04419167075418397</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>110</v>
+      </c>
+      <c r="J47" t="n">
+        <v>244</v>
+      </c>
+      <c r="K47" t="n">
+        <v>76.33309801609582</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4222997900.955163</v>
+        <v>3772839333.170581</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1105004584534443</v>
+        <v>0.07004568992806183</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02391725789542607</v>
+        <v>0.02474582581372841</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>121</v>
+      </c>
+      <c r="J48" t="n">
+        <v>245</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1603955529.225821</v>
+        <v>1277602182.41672</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1830256575230791</v>
+        <v>0.1838058652079524</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02932175110400576</v>
+        <v>0.03469109292984764</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4071353945.628564</v>
+        <v>3577747351.28766</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1182400968561864</v>
+        <v>0.172643335424176</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04233053512185778</v>
+        <v>0.03404920133623313</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>80</v>
+      </c>
+      <c r="J50" t="n">
+        <v>244</v>
+      </c>
+      <c r="K50" t="n">
+        <v>97.59696511610055</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1522906434.693734</v>
+        <v>1358963962.417372</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1529608310080391</v>
+        <v>0.1940967104922716</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04012994103219365</v>
+        <v>0.05394957881319658</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3954703683.903183</v>
+        <v>3988996043.374331</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09001619855299285</v>
+        <v>0.1027253945409606</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05882416274290812</v>
+        <v>0.04738076896083829</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>158</v>
+      </c>
+      <c r="J52" t="n">
+        <v>245</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3360251220.371175</v>
+        <v>3145927437.229475</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1511398988472105</v>
+        <v>0.1359170528654194</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03222943977423684</v>
+        <v>0.02867741790917689</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4281726692.118074</v>
+        <v>3212862051.753273</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1597921435497026</v>
+        <v>0.1343930328633821</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0478900656463773</v>
+        <v>0.04772370807337068</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>129</v>
+      </c>
+      <c r="J54" t="n">
+        <v>242</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4283435174.552288</v>
+        <v>3376914056.725743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1527110802292763</v>
+        <v>0.2164430969133376</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03094825741545343</v>
+        <v>0.0245578992787293</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>110</v>
+      </c>
+      <c r="J55" t="n">
+        <v>244</v>
+      </c>
+      <c r="K55" t="n">
+        <v>82.95665309505102</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1140896998.852959</v>
+        <v>1220638894.71692</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1531468631141759</v>
+        <v>0.1072114461760325</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03832630206397475</v>
+        <v>0.05804248835351956</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3497975395.518593</v>
+        <v>3615633261.520168</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1259206186652071</v>
+        <v>0.1185952187411225</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01816826830116825</v>
+        <v>0.02716025531685842</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>96</v>
+      </c>
+      <c r="J57" t="n">
+        <v>245</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1744175962.307403</v>
+        <v>1617789269.988517</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1694560272605042</v>
+        <v>0.1738756285878054</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03847053911696488</v>
+        <v>0.03098277041090015</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5371285857.45551</v>
+        <v>5344347104.629431</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07883438610164163</v>
+        <v>0.1244223606613327</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03439105974138987</v>
+        <v>0.04837864340809105</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>118</v>
+      </c>
+      <c r="J59" t="n">
+        <v>245</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2361792228.386778</v>
+        <v>3736907271.266194</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1863803977346182</v>
+        <v>0.1506069733455448</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02098503710544145</v>
+        <v>0.02199174257128223</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>35</v>
+      </c>
+      <c r="J60" t="n">
+        <v>245</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3153131607.459191</v>
+        <v>2120966653.725762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1581753386926527</v>
+        <v>0.1708697293503871</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02506771661526945</v>
+        <v>0.0227140189268929</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2084945542.726735</v>
+        <v>1550815117.653519</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1677582658485785</v>
+        <v>0.1176754521496858</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04560903539261395</v>
+        <v>0.04098336424945152</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4436469749.564373</v>
+        <v>5045168400.646874</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1006317081373194</v>
+        <v>0.0807099374986352</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03942380012199316</v>
+        <v>0.03698562726504045</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>119</v>
+      </c>
+      <c r="J63" t="n">
+        <v>245</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5314404363.730341</v>
+        <v>4660686610.872212</v>
       </c>
       <c r="F64" t="n">
-        <v>0.120596435217711</v>
+        <v>0.1829173274150675</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03395710037097079</v>
+        <v>0.02418074479068133</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>121</v>
+      </c>
+      <c r="J64" t="n">
+        <v>244</v>
+      </c>
+      <c r="K64" t="n">
+        <v>100.4095278531756</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4695402775.839493</v>
+        <v>5774538795.628896</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1073183693053088</v>
+        <v>0.162501631124331</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02080507656609303</v>
+        <v>0.02625977857569352</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>196</v>
+      </c>
+      <c r="J65" t="n">
+        <v>245</v>
+      </c>
+      <c r="K65" t="n">
+        <v>106.286679045235</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4270993082.508367</v>
+        <v>4076541928.048576</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1363346016817231</v>
+        <v>0.1201648117799658</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05118862185967044</v>
+        <v>0.04596290827842968</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>121</v>
+      </c>
+      <c r="J66" t="n">
+        <v>244</v>
+      </c>
+      <c r="K66" t="n">
+        <v>94.3633519227314</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3050707075.120343</v>
+        <v>2283258570.989983</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0981997984920908</v>
+        <v>0.09359767251129025</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04068991958372395</v>
+        <v>0.03824640890819328</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5051034124.66186</v>
+        <v>4320912155.288993</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1214824771461565</v>
+        <v>0.1420937836821146</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03410258055967699</v>
+        <v>0.03626465829138114</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>124</v>
+      </c>
+      <c r="J68" t="n">
+        <v>245</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1816620955.206819</v>
+        <v>1597762649.773903</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1651510503184211</v>
+        <v>0.1798437834331686</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06010622174542023</v>
+        <v>0.03671970972468382</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2278319509.402084</v>
+        <v>2622650295.6762</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09941874755846927</v>
+        <v>0.101416354074947</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04950436788771653</v>
+        <v>0.04010193915883695</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3565987106.512751</v>
+        <v>3808319940.820109</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1591227156985068</v>
+        <v>0.1768005611444812</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02533291102378557</v>
+        <v>0.0317909337639966</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>185</v>
+      </c>
+      <c r="J71" t="n">
+        <v>244</v>
+      </c>
+      <c r="K71" t="n">
+        <v>106.1649742356132</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1429728815.943969</v>
+        <v>2036465274.421725</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08971539807135689</v>
+        <v>0.09763556072854689</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03611353599619587</v>
+        <v>0.03399880875530147</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2975825164.551787</v>
+        <v>2729826092.487854</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0709063150253235</v>
+        <v>0.0879501663118706</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03787036998740537</v>
+        <v>0.03257861805625105</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>243</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2921427700.674416</v>
+        <v>2850314494.750819</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1311723460509306</v>
+        <v>0.1450222474104781</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03494654052971606</v>
+        <v>0.02240990453590859</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1740266168.553564</v>
+        <v>2443119707.177745</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1562034301812006</v>
+        <v>0.1028130638629799</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03098807221856469</v>
+        <v>0.02523050857123363</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4543073283.067895</v>
+        <v>4534688848.895771</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08472159372353087</v>
+        <v>0.109763167805156</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02954027463878149</v>
+        <v>0.03337568715327751</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>114</v>
+      </c>
+      <c r="J76" t="n">
+        <v>244</v>
+      </c>
+      <c r="K76" t="n">
+        <v>93.796757978584</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1592510855.750326</v>
+        <v>1478785863.405954</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1574099548223354</v>
+        <v>0.1695114993431663</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02413450813011159</v>
+        <v>0.02086059225121112</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3674809706.542437</v>
+        <v>3539357018.097956</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1364298950531217</v>
+        <v>0.08995920018006699</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04247985362394169</v>
+        <v>0.04607501627681478</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>122</v>
+      </c>
+      <c r="J78" t="n">
+        <v>243</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1411537067.970465</v>
+        <v>1925822972.503757</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1242089031590782</v>
+        <v>0.1097829766984321</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03622871114631582</v>
+        <v>0.03222252092995817</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4543664169.330312</v>
+        <v>4049324717.544401</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08303905356574991</v>
+        <v>0.06815559443261224</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03199817914869747</v>
+        <v>0.02368700860407608</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>119</v>
+      </c>
+      <c r="J80" t="n">
+        <v>245</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3827309774.522338</v>
+        <v>3956883968.73167</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1308633886823683</v>
+        <v>0.1321644270181443</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02270105037700122</v>
+        <v>0.02931231431370317</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>112</v>
+      </c>
+      <c r="J81" t="n">
+        <v>245</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5272868714.466846</v>
+        <v>4238247925.778706</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1946136996602268</v>
+        <v>0.1897210423084107</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02607773254127058</v>
+        <v>0.02245639949021246</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>185</v>
+      </c>
+      <c r="J82" t="n">
+        <v>245</v>
+      </c>
+      <c r="K82" t="n">
+        <v>106.3503766336612</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1895220708.128441</v>
+        <v>1737791421.354354</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1485950914332532</v>
+        <v>0.09612371866434311</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04457595544217632</v>
+        <v>0.04255125875332104</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2197573938.709723</v>
+        <v>2059924461.160069</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0781874175637086</v>
+        <v>0.1024450263953364</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03824635419226909</v>
+        <v>0.03182809299645379</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3692705957.386402</v>
+        <v>3576309055.047513</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1473267820889443</v>
+        <v>0.1582699400616049</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03468448677136934</v>
+        <v>0.0360468328753641</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>242</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2390339922.522736</v>
+        <v>1957416984.592753</v>
       </c>
       <c r="F86" t="n">
-        <v>0.117380949136574</v>
+        <v>0.1338488891025614</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02327205939648213</v>
+        <v>0.02176975318487144</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1107393383.090359</v>
+        <v>1462890652.970529</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1468848271384645</v>
+        <v>0.1316638459505437</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03864089792118872</v>
+        <v>0.04336142482005793</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2530073875.58064</v>
+        <v>3205897121.788283</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1757436104319161</v>
+        <v>0.1538556469503288</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03295555282685991</v>
+        <v>0.03269421598959342</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2810591002.912873</v>
+        <v>2958263466.940207</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1309162101831989</v>
+        <v>0.1011682448714121</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03472097941307081</v>
+        <v>0.03416753165745322</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>241</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1949702862.384474</v>
+        <v>1621225282.931452</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1048499581774023</v>
+        <v>0.1152303865531219</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05565312380932139</v>
+        <v>0.05047034802108235</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1356605713.39157</v>
+        <v>1688961742.667702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1364300429744186</v>
+        <v>0.1373824208687671</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05313679464018328</v>
+        <v>0.04257041441713367</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2357791778.010249</v>
+        <v>1855388426.345279</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1038034987517669</v>
+        <v>0.09516392298934799</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03302402407122785</v>
+        <v>0.03107238838039852</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4800233401.664</v>
+        <v>3266128766.23655</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1116149757848909</v>
+        <v>0.1313647107007185</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03806384386073314</v>
+        <v>0.03420720006028627</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>109</v>
+      </c>
+      <c r="J93" t="n">
+        <v>244</v>
+      </c>
+      <c r="K93" t="n">
+        <v>75.66296479914872</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1854074476.139801</v>
+        <v>2001614925.600179</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1055827087794403</v>
+        <v>0.134637835188325</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02683436129275417</v>
+        <v>0.04038075938403564</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2525894907.584018</v>
+        <v>2309688203.241115</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1380969073044176</v>
+        <v>0.1373513211891325</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03921203386987505</v>
+        <v>0.04592792177948813</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1899092896.992151</v>
+        <v>1780918827.369313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1248901703638421</v>
+        <v>0.1300689521259928</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03886549507211046</v>
+        <v>0.04382154056299672</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3735674583.82238</v>
+        <v>4173542550.429474</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1763396502072873</v>
+        <v>0.1445203797298551</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02119433900770109</v>
+        <v>0.02553242311397775</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>119</v>
+      </c>
+      <c r="J97" t="n">
+        <v>245</v>
+      </c>
+      <c r="K97" t="n">
+        <v>106.2900245699421</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2673501874.670977</v>
+        <v>3766491661.226017</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09361468863435349</v>
+        <v>0.119184828625449</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0234690104729089</v>
+        <v>0.03079886162818593</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>59</v>
+      </c>
+      <c r="J98" t="n">
+        <v>245</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2541467715.59387</v>
+        <v>2976058865.474674</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1116741708971285</v>
+        <v>0.09830915020495763</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03430129583563526</v>
+        <v>0.03554575726230852</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4482305181.191258</v>
+        <v>4150656057.743406</v>
       </c>
       <c r="F100" t="n">
-        <v>0.135809110260936</v>
+        <v>0.1679599508583433</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02688766352527762</v>
+        <v>0.02214292511780152</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>102</v>
+      </c>
+      <c r="J100" t="n">
+        <v>244</v>
+      </c>
+      <c r="K100" t="n">
+        <v>103.6936144475383</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3557453160.646699</v>
+        <v>3403730654.628409</v>
       </c>
       <c r="F101" t="n">
-        <v>0.186996621660782</v>
+        <v>0.1606811643846077</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05815925233900232</v>
+        <v>0.05331632189437562</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
